--- a/OFICIOS.2.xlsx
+++ b/OFICIOS.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Downloads\OFICIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE84EE-FA7E-4AE9-B42A-B6A96E81C21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6F147-F124-4BD8-B886-E2D9D6B10777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 3" guid="{523CBEDF-CF58-4FE1-A877-157C6C0C4174}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filtro 2" guid="{B81C1FE2-01BE-4DE4-8B6A-0A3FA6596111}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filtro 1" guid="{26D55965-C2B7-4D5D-BCB2-3F8E5B690A85}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 4" guid="{11947F85-8EB4-43C6-A6FC-2B82D91509D7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 1" guid="{26D55965-C2B7-4D5D-BCB2-3F8E5B690A85}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 2" guid="{B81C1FE2-01BE-4DE4-8B6A-0A3FA6596111}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 3" guid="{523CBEDF-CF58-4FE1-A877-157C6C0C4174}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2993,7 +2993,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -3246,7 +3246,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -16901,9 +16901,548 @@
   </sheetData>
   <autoFilter ref="A1:F460" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
+    <customSheetView guid="{26D55965-C2B7-4D5D-BCB2-3F8E5B690A85}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="D1:D998" xr:uid="{6CB54AC1-1903-4474-8097-8E8B7AF4B0FD}"/>
+    </customSheetView>
+    <customSheetView guid="{523CBEDF-CF58-4FE1-A877-157C6C0C4174}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="F1:F998" xr:uid="{509C4CDF-6381-4BB3-8978-EA23694D9BD9}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="023"/>
+            <filter val="074"/>
+            <filter val="096"/>
+            <filter val="101"/>
+            <filter val="106"/>
+            <filter val="117"/>
+            <filter val="141"/>
+            <filter val="150"/>
+            <filter val="153"/>
+            <filter val="154"/>
+            <filter val="155"/>
+            <filter val="156"/>
+            <filter val="157"/>
+            <filter val="158"/>
+            <filter val="161"/>
+            <filter val="162"/>
+            <filter val="165"/>
+            <filter val="166"/>
+            <filter val="167"/>
+            <filter val="168"/>
+            <filter val="169"/>
+            <filter val="170"/>
+            <filter val="172"/>
+            <filter val="173"/>
+            <filter val="174"/>
+            <filter val="175"/>
+            <filter val="176"/>
+            <filter val="177"/>
+            <filter val="178"/>
+            <filter val="180"/>
+            <filter val="181"/>
+            <filter val="182"/>
+            <filter val="183"/>
+            <filter val="184"/>
+            <filter val="185"/>
+            <filter val="186"/>
+            <filter val="187"/>
+            <filter val="188"/>
+            <filter val="189"/>
+            <filter val="190"/>
+            <filter val="191"/>
+            <filter val="193"/>
+            <filter val="195"/>
+            <filter val="196"/>
+            <filter val="197"/>
+            <filter val="198"/>
+            <filter val="199"/>
+            <filter val="200"/>
+            <filter val="202"/>
+            <filter val="203"/>
+            <filter val="204"/>
+            <filter val="205"/>
+            <filter val="206"/>
+            <filter val="207"/>
+            <filter val="208"/>
+            <filter val="209"/>
+            <filter val="210"/>
+            <filter val="211"/>
+            <filter val="212"/>
+            <filter val="213"/>
+            <filter val="214"/>
+            <filter val="215"/>
+            <filter val="216"/>
+            <filter val="217"/>
+            <filter val="218"/>
+            <filter val="219"/>
+            <filter val="220"/>
+            <filter val="221"/>
+            <filter val="222"/>
+            <filter val="223"/>
+            <filter val="224"/>
+            <filter val="225"/>
+            <filter val="226"/>
+            <filter val="227"/>
+            <filter val="229"/>
+            <filter val="230"/>
+            <filter val="231"/>
+            <filter val="232"/>
+            <filter val="233"/>
+            <filter val="234"/>
+            <filter val="235"/>
+            <filter val="236"/>
+            <filter val="237"/>
+            <filter val="238"/>
+            <filter val="239"/>
+            <filter val="240"/>
+            <filter val="241"/>
+            <filter val="242"/>
+            <filter val="243"/>
+            <filter val="244"/>
+            <filter val="245"/>
+            <filter val="246"/>
+            <filter val="247"/>
+            <filter val="248"/>
+            <filter val="249"/>
+            <filter val="250"/>
+            <filter val="251"/>
+            <filter val="252"/>
+            <filter val="253"/>
+            <filter val="254"/>
+            <filter val="255"/>
+            <filter val="256"/>
+            <filter val="257"/>
+            <filter val="258"/>
+            <filter val="259"/>
+            <filter val="260"/>
+            <filter val="262"/>
+            <filter val="263"/>
+            <filter val="264"/>
+            <filter val="265"/>
+            <filter val="266"/>
+            <filter val="267"/>
+            <filter val="268"/>
+            <filter val="270"/>
+            <filter val="271"/>
+            <filter val="272"/>
+            <filter val="273"/>
+            <filter val="274"/>
+            <filter val="275"/>
+            <filter val="276"/>
+            <filter val="277"/>
+            <filter val="278"/>
+            <filter val="279"/>
+            <filter val="280"/>
+            <filter val="283"/>
+            <filter val="284"/>
+            <filter val="285"/>
+            <filter val="286"/>
+            <filter val="287"/>
+            <filter val="289"/>
+            <filter val="290"/>
+            <filter val="291"/>
+            <filter val="292"/>
+            <filter val="293"/>
+            <filter val="295"/>
+            <filter val="296"/>
+            <filter val="297"/>
+            <filter val="298"/>
+            <filter val="300"/>
+            <filter val="301"/>
+            <filter val="302"/>
+            <filter val="303"/>
+            <filter val="304"/>
+            <filter val="305"/>
+            <filter val="306"/>
+            <filter val="307"/>
+            <filter val="308"/>
+            <filter val="309"/>
+            <filter val="310"/>
+            <filter val="312"/>
+            <filter val="313"/>
+            <filter val="314"/>
+            <filter val="315"/>
+            <filter val="316"/>
+            <filter val="317"/>
+            <filter val="318"/>
+            <filter val="319"/>
+            <filter val="320"/>
+            <filter val="323"/>
+            <filter val="324"/>
+            <filter val="325"/>
+            <filter val="328"/>
+            <filter val="329"/>
+            <filter val="330"/>
+            <filter val="331"/>
+            <filter val="332"/>
+            <filter val="333"/>
+            <filter val="334"/>
+            <filter val="335"/>
+            <filter val="336"/>
+            <filter val="337"/>
+            <filter val="338"/>
+            <filter val="339"/>
+            <filter val="340"/>
+            <filter val="341"/>
+            <filter val="343"/>
+            <filter val="345"/>
+            <filter val="347"/>
+            <filter val="348"/>
+            <filter val="349"/>
+            <filter val="350"/>
+            <filter val="353"/>
+            <filter val="355"/>
+            <filter val="356"/>
+            <filter val="357"/>
+            <filter val="358"/>
+            <filter val="359"/>
+            <filter val="360"/>
+            <filter val="361"/>
+            <filter val="362"/>
+            <filter val="363"/>
+            <filter val="364"/>
+            <filter val="365"/>
+            <filter val="366"/>
+            <filter val="367"/>
+            <filter val="368"/>
+            <filter val="369"/>
+            <filter val="370"/>
+            <filter val="371"/>
+            <filter val="372"/>
+            <filter val="373"/>
+            <filter val="374"/>
+            <filter val="375"/>
+            <filter val="376"/>
+            <filter val="377"/>
+            <filter val="379"/>
+            <filter val="380"/>
+            <filter val="381"/>
+            <filter val="383"/>
+            <filter val="384"/>
+            <filter val="385"/>
+            <filter val="386"/>
+            <filter val="387"/>
+            <filter val="389"/>
+            <filter val="390"/>
+            <filter val="391"/>
+            <filter val="392"/>
+            <filter val="393"/>
+            <filter val="394"/>
+            <filter val="395"/>
+            <filter val="396"/>
+            <filter val="397"/>
+            <filter val="398"/>
+            <filter val="399"/>
+            <filter val="400"/>
+            <filter val="401"/>
+            <filter val="402"/>
+            <filter val="403"/>
+            <filter val="404"/>
+            <filter val="406"/>
+            <filter val="407"/>
+            <filter val="408"/>
+            <filter val="409"/>
+            <filter val="410"/>
+            <filter val="411"/>
+            <filter val="412"/>
+            <filter val="413"/>
+            <filter val="414"/>
+            <filter val="415"/>
+            <filter val="416"/>
+            <filter val="418"/>
+            <filter val="419"/>
+            <filter val="420"/>
+            <filter val="423"/>
+            <filter val="424"/>
+            <filter val="425"/>
+            <filter val="426"/>
+            <filter val="428"/>
+            <filter val="430"/>
+            <filter val="432"/>
+            <filter val="433"/>
+            <filter val="434"/>
+            <filter val="437"/>
+            <filter val="438"/>
+            <filter val="439"/>
+            <filter val="440"/>
+            <filter val="445"/>
+            <filter val="446"/>
+            <filter val="448"/>
+            <filter val="449"/>
+            <filter val="450"/>
+            <filter val="451"/>
+            <filter val="454"/>
+            <filter val="ANULADO"/>
+            <filter val="Anulado Edgardo no viajo a Barichara"/>
+            <filter val="Esta en tramite de archivo"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{11947F85-8EB4-43C6-A6FC-2B82D91509D7}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="F1:F998" xr:uid="{D001DBD3-49A2-4374-A781-2E9CE8738165}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="023"/>
+            <filter val="074"/>
+            <filter val="096"/>
+            <filter val="101"/>
+            <filter val="106"/>
+            <filter val="117"/>
+            <filter val="141"/>
+            <filter val="150"/>
+            <filter val="153"/>
+            <filter val="169"/>
+            <filter val="172"/>
+            <filter val="176"/>
+            <filter val="177"/>
+            <filter val="178"/>
+            <filter val="180"/>
+            <filter val="181"/>
+            <filter val="182"/>
+            <filter val="183"/>
+            <filter val="184"/>
+            <filter val="185"/>
+            <filter val="186"/>
+            <filter val="187"/>
+            <filter val="188"/>
+            <filter val="189"/>
+            <filter val="190"/>
+            <filter val="191"/>
+            <filter val="193"/>
+            <filter val="195"/>
+            <filter val="196"/>
+            <filter val="197"/>
+            <filter val="198"/>
+            <filter val="199"/>
+            <filter val="200"/>
+            <filter val="202"/>
+            <filter val="203"/>
+            <filter val="204"/>
+            <filter val="205"/>
+            <filter val="206"/>
+            <filter val="207"/>
+            <filter val="208"/>
+            <filter val="209"/>
+            <filter val="210"/>
+            <filter val="211"/>
+            <filter val="212"/>
+            <filter val="213"/>
+            <filter val="214"/>
+            <filter val="215"/>
+            <filter val="216"/>
+            <filter val="217"/>
+            <filter val="218"/>
+            <filter val="219"/>
+            <filter val="220"/>
+            <filter val="221"/>
+            <filter val="222"/>
+            <filter val="223"/>
+            <filter val="224"/>
+            <filter val="225"/>
+            <filter val="226"/>
+            <filter val="227"/>
+            <filter val="229"/>
+            <filter val="230"/>
+            <filter val="231"/>
+            <filter val="232"/>
+            <filter val="233"/>
+            <filter val="234"/>
+            <filter val="235"/>
+            <filter val="236"/>
+            <filter val="237"/>
+            <filter val="238"/>
+            <filter val="239"/>
+            <filter val="240"/>
+            <filter val="241"/>
+            <filter val="242"/>
+            <filter val="243"/>
+            <filter val="244"/>
+            <filter val="245"/>
+            <filter val="246"/>
+            <filter val="247"/>
+            <filter val="248"/>
+            <filter val="249"/>
+            <filter val="250"/>
+            <filter val="251"/>
+            <filter val="252"/>
+            <filter val="253"/>
+            <filter val="254"/>
+            <filter val="255"/>
+            <filter val="256"/>
+            <filter val="257"/>
+            <filter val="258"/>
+            <filter val="259"/>
+            <filter val="260"/>
+            <filter val="262"/>
+            <filter val="263"/>
+            <filter val="264"/>
+            <filter val="265"/>
+            <filter val="266"/>
+            <filter val="267"/>
+            <filter val="268"/>
+            <filter val="270"/>
+            <filter val="271"/>
+            <filter val="272"/>
+            <filter val="273"/>
+            <filter val="274"/>
+            <filter val="275"/>
+            <filter val="276"/>
+            <filter val="277"/>
+            <filter val="278"/>
+            <filter val="279"/>
+            <filter val="280"/>
+            <filter val="283"/>
+            <filter val="284"/>
+            <filter val="285"/>
+            <filter val="286"/>
+            <filter val="287"/>
+            <filter val="289"/>
+            <filter val="290"/>
+            <filter val="291"/>
+            <filter val="292"/>
+            <filter val="293"/>
+            <filter val="295"/>
+            <filter val="296"/>
+            <filter val="297"/>
+            <filter val="298"/>
+            <filter val="300"/>
+            <filter val="301"/>
+            <filter val="302"/>
+            <filter val="303"/>
+            <filter val="304"/>
+            <filter val="305"/>
+            <filter val="306"/>
+            <filter val="307"/>
+            <filter val="308"/>
+            <filter val="309"/>
+            <filter val="310"/>
+            <filter val="312"/>
+            <filter val="313"/>
+            <filter val="314"/>
+            <filter val="315"/>
+            <filter val="316"/>
+            <filter val="317"/>
+            <filter val="318"/>
+            <filter val="319"/>
+            <filter val="320"/>
+            <filter val="323"/>
+            <filter val="324"/>
+            <filter val="325"/>
+            <filter val="328"/>
+            <filter val="329"/>
+            <filter val="330"/>
+            <filter val="331"/>
+            <filter val="332"/>
+            <filter val="333"/>
+            <filter val="334"/>
+            <filter val="335"/>
+            <filter val="336"/>
+            <filter val="337"/>
+            <filter val="338"/>
+            <filter val="339"/>
+            <filter val="340"/>
+            <filter val="341"/>
+            <filter val="343"/>
+            <filter val="345"/>
+            <filter val="347"/>
+            <filter val="348"/>
+            <filter val="349"/>
+            <filter val="350"/>
+            <filter val="353"/>
+            <filter val="355"/>
+            <filter val="356"/>
+            <filter val="357"/>
+            <filter val="358"/>
+            <filter val="359"/>
+            <filter val="360"/>
+            <filter val="361"/>
+            <filter val="362"/>
+            <filter val="363"/>
+            <filter val="364"/>
+            <filter val="365"/>
+            <filter val="366"/>
+            <filter val="367"/>
+            <filter val="368"/>
+            <filter val="369"/>
+            <filter val="370"/>
+            <filter val="371"/>
+            <filter val="372"/>
+            <filter val="373"/>
+            <filter val="374"/>
+            <filter val="375"/>
+            <filter val="376"/>
+            <filter val="377"/>
+            <filter val="379"/>
+            <filter val="380"/>
+            <filter val="381"/>
+            <filter val="383"/>
+            <filter val="384"/>
+            <filter val="385"/>
+            <filter val="386"/>
+            <filter val="387"/>
+            <filter val="389"/>
+            <filter val="390"/>
+            <filter val="391"/>
+            <filter val="392"/>
+            <filter val="393"/>
+            <filter val="394"/>
+            <filter val="395"/>
+            <filter val="396"/>
+            <filter val="397"/>
+            <filter val="398"/>
+            <filter val="399"/>
+            <filter val="400"/>
+            <filter val="401"/>
+            <filter val="402"/>
+            <filter val="403"/>
+            <filter val="404"/>
+            <filter val="406"/>
+            <filter val="407"/>
+            <filter val="408"/>
+            <filter val="409"/>
+            <filter val="410"/>
+            <filter val="411"/>
+            <filter val="412"/>
+            <filter val="413"/>
+            <filter val="414"/>
+            <filter val="415"/>
+            <filter val="416"/>
+            <filter val="418"/>
+            <filter val="419"/>
+            <filter val="420"/>
+            <filter val="423"/>
+            <filter val="424"/>
+            <filter val="425"/>
+            <filter val="426"/>
+            <filter val="428"/>
+            <filter val="430"/>
+            <filter val="432"/>
+            <filter val="433"/>
+            <filter val="434"/>
+            <filter val="437"/>
+            <filter val="438"/>
+            <filter val="439"/>
+            <filter val="440"/>
+            <filter val="445"/>
+            <filter val="446"/>
+            <filter val="448"/>
+            <filter val="449"/>
+            <filter val="450"/>
+            <filter val="451"/>
+            <filter val="454"/>
+            <filter val="ANULADO"/>
+            <filter val="Anulado Edgardo no viajo a Barichara"/>
+            <filter val="Esta en tramite de archivo"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{B81C1FE2-01BE-4DE4-8B6A-0A3FA6596111}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="D1:D998" xr:uid="{56A8837B-511E-4A49-B92D-4A8B3A9142F1}">
+      <autoFilter ref="D1:D998" xr:uid="{69AF1764-B56F-4BF5-8CC3-16DA1C7D7904}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="(Respuesta solicitud investigación por trashumancia electoral en Santa_x000a_Isabel -Tolima. Rad. CNE-E-DG-2023-069265)"/>
@@ -17210,545 +17749,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{11947F85-8EB4-43C6-A6FC-2B82D91509D7}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="F1:F998" xr:uid="{B517F180-AA08-4F7E-84C7-CF8977937ED7}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="023"/>
-            <filter val="074"/>
-            <filter val="096"/>
-            <filter val="101"/>
-            <filter val="106"/>
-            <filter val="117"/>
-            <filter val="141"/>
-            <filter val="150"/>
-            <filter val="153"/>
-            <filter val="169"/>
-            <filter val="172"/>
-            <filter val="176"/>
-            <filter val="177"/>
-            <filter val="178"/>
-            <filter val="180"/>
-            <filter val="181"/>
-            <filter val="182"/>
-            <filter val="183"/>
-            <filter val="184"/>
-            <filter val="185"/>
-            <filter val="186"/>
-            <filter val="187"/>
-            <filter val="188"/>
-            <filter val="189"/>
-            <filter val="190"/>
-            <filter val="191"/>
-            <filter val="193"/>
-            <filter val="195"/>
-            <filter val="196"/>
-            <filter val="197"/>
-            <filter val="198"/>
-            <filter val="199"/>
-            <filter val="200"/>
-            <filter val="202"/>
-            <filter val="203"/>
-            <filter val="204"/>
-            <filter val="205"/>
-            <filter val="206"/>
-            <filter val="207"/>
-            <filter val="208"/>
-            <filter val="209"/>
-            <filter val="210"/>
-            <filter val="211"/>
-            <filter val="212"/>
-            <filter val="213"/>
-            <filter val="214"/>
-            <filter val="215"/>
-            <filter val="216"/>
-            <filter val="217"/>
-            <filter val="218"/>
-            <filter val="219"/>
-            <filter val="220"/>
-            <filter val="221"/>
-            <filter val="222"/>
-            <filter val="223"/>
-            <filter val="224"/>
-            <filter val="225"/>
-            <filter val="226"/>
-            <filter val="227"/>
-            <filter val="229"/>
-            <filter val="230"/>
-            <filter val="231"/>
-            <filter val="232"/>
-            <filter val="233"/>
-            <filter val="234"/>
-            <filter val="235"/>
-            <filter val="236"/>
-            <filter val="237"/>
-            <filter val="238"/>
-            <filter val="239"/>
-            <filter val="240"/>
-            <filter val="241"/>
-            <filter val="242"/>
-            <filter val="243"/>
-            <filter val="244"/>
-            <filter val="245"/>
-            <filter val="246"/>
-            <filter val="247"/>
-            <filter val="248"/>
-            <filter val="249"/>
-            <filter val="250"/>
-            <filter val="251"/>
-            <filter val="252"/>
-            <filter val="253"/>
-            <filter val="254"/>
-            <filter val="255"/>
-            <filter val="256"/>
-            <filter val="257"/>
-            <filter val="258"/>
-            <filter val="259"/>
-            <filter val="260"/>
-            <filter val="262"/>
-            <filter val="263"/>
-            <filter val="264"/>
-            <filter val="265"/>
-            <filter val="266"/>
-            <filter val="267"/>
-            <filter val="268"/>
-            <filter val="270"/>
-            <filter val="271"/>
-            <filter val="272"/>
-            <filter val="273"/>
-            <filter val="274"/>
-            <filter val="275"/>
-            <filter val="276"/>
-            <filter val="277"/>
-            <filter val="278"/>
-            <filter val="279"/>
-            <filter val="280"/>
-            <filter val="283"/>
-            <filter val="284"/>
-            <filter val="285"/>
-            <filter val="286"/>
-            <filter val="287"/>
-            <filter val="289"/>
-            <filter val="290"/>
-            <filter val="291"/>
-            <filter val="292"/>
-            <filter val="293"/>
-            <filter val="295"/>
-            <filter val="296"/>
-            <filter val="297"/>
-            <filter val="298"/>
-            <filter val="300"/>
-            <filter val="301"/>
-            <filter val="302"/>
-            <filter val="303"/>
-            <filter val="304"/>
-            <filter val="305"/>
-            <filter val="306"/>
-            <filter val="307"/>
-            <filter val="308"/>
-            <filter val="309"/>
-            <filter val="310"/>
-            <filter val="312"/>
-            <filter val="313"/>
-            <filter val="314"/>
-            <filter val="315"/>
-            <filter val="316"/>
-            <filter val="317"/>
-            <filter val="318"/>
-            <filter val="319"/>
-            <filter val="320"/>
-            <filter val="323"/>
-            <filter val="324"/>
-            <filter val="325"/>
-            <filter val="328"/>
-            <filter val="329"/>
-            <filter val="330"/>
-            <filter val="331"/>
-            <filter val="332"/>
-            <filter val="333"/>
-            <filter val="334"/>
-            <filter val="335"/>
-            <filter val="336"/>
-            <filter val="337"/>
-            <filter val="338"/>
-            <filter val="339"/>
-            <filter val="340"/>
-            <filter val="341"/>
-            <filter val="343"/>
-            <filter val="345"/>
-            <filter val="347"/>
-            <filter val="348"/>
-            <filter val="349"/>
-            <filter val="350"/>
-            <filter val="353"/>
-            <filter val="355"/>
-            <filter val="356"/>
-            <filter val="357"/>
-            <filter val="358"/>
-            <filter val="359"/>
-            <filter val="360"/>
-            <filter val="361"/>
-            <filter val="362"/>
-            <filter val="363"/>
-            <filter val="364"/>
-            <filter val="365"/>
-            <filter val="366"/>
-            <filter val="367"/>
-            <filter val="368"/>
-            <filter val="369"/>
-            <filter val="370"/>
-            <filter val="371"/>
-            <filter val="372"/>
-            <filter val="373"/>
-            <filter val="374"/>
-            <filter val="375"/>
-            <filter val="376"/>
-            <filter val="377"/>
-            <filter val="379"/>
-            <filter val="380"/>
-            <filter val="381"/>
-            <filter val="383"/>
-            <filter val="384"/>
-            <filter val="385"/>
-            <filter val="386"/>
-            <filter val="387"/>
-            <filter val="389"/>
-            <filter val="390"/>
-            <filter val="391"/>
-            <filter val="392"/>
-            <filter val="393"/>
-            <filter val="394"/>
-            <filter val="395"/>
-            <filter val="396"/>
-            <filter val="397"/>
-            <filter val="398"/>
-            <filter val="399"/>
-            <filter val="400"/>
-            <filter val="401"/>
-            <filter val="402"/>
-            <filter val="403"/>
-            <filter val="404"/>
-            <filter val="406"/>
-            <filter val="407"/>
-            <filter val="408"/>
-            <filter val="409"/>
-            <filter val="410"/>
-            <filter val="411"/>
-            <filter val="412"/>
-            <filter val="413"/>
-            <filter val="414"/>
-            <filter val="415"/>
-            <filter val="416"/>
-            <filter val="418"/>
-            <filter val="419"/>
-            <filter val="420"/>
-            <filter val="423"/>
-            <filter val="424"/>
-            <filter val="425"/>
-            <filter val="426"/>
-            <filter val="428"/>
-            <filter val="430"/>
-            <filter val="432"/>
-            <filter val="433"/>
-            <filter val="434"/>
-            <filter val="437"/>
-            <filter val="438"/>
-            <filter val="439"/>
-            <filter val="440"/>
-            <filter val="445"/>
-            <filter val="446"/>
-            <filter val="448"/>
-            <filter val="449"/>
-            <filter val="450"/>
-            <filter val="451"/>
-            <filter val="454"/>
-            <filter val="ANULADO"/>
-            <filter val="Anulado Edgardo no viajo a Barichara"/>
-            <filter val="Esta en tramite de archivo"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{523CBEDF-CF58-4FE1-A877-157C6C0C4174}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="F1:F998" xr:uid="{B7101310-B482-4DB5-B2B6-0CAC8C017805}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="023"/>
-            <filter val="074"/>
-            <filter val="096"/>
-            <filter val="101"/>
-            <filter val="106"/>
-            <filter val="117"/>
-            <filter val="141"/>
-            <filter val="150"/>
-            <filter val="153"/>
-            <filter val="154"/>
-            <filter val="155"/>
-            <filter val="156"/>
-            <filter val="157"/>
-            <filter val="158"/>
-            <filter val="161"/>
-            <filter val="162"/>
-            <filter val="165"/>
-            <filter val="166"/>
-            <filter val="167"/>
-            <filter val="168"/>
-            <filter val="169"/>
-            <filter val="170"/>
-            <filter val="172"/>
-            <filter val="173"/>
-            <filter val="174"/>
-            <filter val="175"/>
-            <filter val="176"/>
-            <filter val="177"/>
-            <filter val="178"/>
-            <filter val="180"/>
-            <filter val="181"/>
-            <filter val="182"/>
-            <filter val="183"/>
-            <filter val="184"/>
-            <filter val="185"/>
-            <filter val="186"/>
-            <filter val="187"/>
-            <filter val="188"/>
-            <filter val="189"/>
-            <filter val="190"/>
-            <filter val="191"/>
-            <filter val="193"/>
-            <filter val="195"/>
-            <filter val="196"/>
-            <filter val="197"/>
-            <filter val="198"/>
-            <filter val="199"/>
-            <filter val="200"/>
-            <filter val="202"/>
-            <filter val="203"/>
-            <filter val="204"/>
-            <filter val="205"/>
-            <filter val="206"/>
-            <filter val="207"/>
-            <filter val="208"/>
-            <filter val="209"/>
-            <filter val="210"/>
-            <filter val="211"/>
-            <filter val="212"/>
-            <filter val="213"/>
-            <filter val="214"/>
-            <filter val="215"/>
-            <filter val="216"/>
-            <filter val="217"/>
-            <filter val="218"/>
-            <filter val="219"/>
-            <filter val="220"/>
-            <filter val="221"/>
-            <filter val="222"/>
-            <filter val="223"/>
-            <filter val="224"/>
-            <filter val="225"/>
-            <filter val="226"/>
-            <filter val="227"/>
-            <filter val="229"/>
-            <filter val="230"/>
-            <filter val="231"/>
-            <filter val="232"/>
-            <filter val="233"/>
-            <filter val="234"/>
-            <filter val="235"/>
-            <filter val="236"/>
-            <filter val="237"/>
-            <filter val="238"/>
-            <filter val="239"/>
-            <filter val="240"/>
-            <filter val="241"/>
-            <filter val="242"/>
-            <filter val="243"/>
-            <filter val="244"/>
-            <filter val="245"/>
-            <filter val="246"/>
-            <filter val="247"/>
-            <filter val="248"/>
-            <filter val="249"/>
-            <filter val="250"/>
-            <filter val="251"/>
-            <filter val="252"/>
-            <filter val="253"/>
-            <filter val="254"/>
-            <filter val="255"/>
-            <filter val="256"/>
-            <filter val="257"/>
-            <filter val="258"/>
-            <filter val="259"/>
-            <filter val="260"/>
-            <filter val="262"/>
-            <filter val="263"/>
-            <filter val="264"/>
-            <filter val="265"/>
-            <filter val="266"/>
-            <filter val="267"/>
-            <filter val="268"/>
-            <filter val="270"/>
-            <filter val="271"/>
-            <filter val="272"/>
-            <filter val="273"/>
-            <filter val="274"/>
-            <filter val="275"/>
-            <filter val="276"/>
-            <filter val="277"/>
-            <filter val="278"/>
-            <filter val="279"/>
-            <filter val="280"/>
-            <filter val="283"/>
-            <filter val="284"/>
-            <filter val="285"/>
-            <filter val="286"/>
-            <filter val="287"/>
-            <filter val="289"/>
-            <filter val="290"/>
-            <filter val="291"/>
-            <filter val="292"/>
-            <filter val="293"/>
-            <filter val="295"/>
-            <filter val="296"/>
-            <filter val="297"/>
-            <filter val="298"/>
-            <filter val="300"/>
-            <filter val="301"/>
-            <filter val="302"/>
-            <filter val="303"/>
-            <filter val="304"/>
-            <filter val="305"/>
-            <filter val="306"/>
-            <filter val="307"/>
-            <filter val="308"/>
-            <filter val="309"/>
-            <filter val="310"/>
-            <filter val="312"/>
-            <filter val="313"/>
-            <filter val="314"/>
-            <filter val="315"/>
-            <filter val="316"/>
-            <filter val="317"/>
-            <filter val="318"/>
-            <filter val="319"/>
-            <filter val="320"/>
-            <filter val="323"/>
-            <filter val="324"/>
-            <filter val="325"/>
-            <filter val="328"/>
-            <filter val="329"/>
-            <filter val="330"/>
-            <filter val="331"/>
-            <filter val="332"/>
-            <filter val="333"/>
-            <filter val="334"/>
-            <filter val="335"/>
-            <filter val="336"/>
-            <filter val="337"/>
-            <filter val="338"/>
-            <filter val="339"/>
-            <filter val="340"/>
-            <filter val="341"/>
-            <filter val="343"/>
-            <filter val="345"/>
-            <filter val="347"/>
-            <filter val="348"/>
-            <filter val="349"/>
-            <filter val="350"/>
-            <filter val="353"/>
-            <filter val="355"/>
-            <filter val="356"/>
-            <filter val="357"/>
-            <filter val="358"/>
-            <filter val="359"/>
-            <filter val="360"/>
-            <filter val="361"/>
-            <filter val="362"/>
-            <filter val="363"/>
-            <filter val="364"/>
-            <filter val="365"/>
-            <filter val="366"/>
-            <filter val="367"/>
-            <filter val="368"/>
-            <filter val="369"/>
-            <filter val="370"/>
-            <filter val="371"/>
-            <filter val="372"/>
-            <filter val="373"/>
-            <filter val="374"/>
-            <filter val="375"/>
-            <filter val="376"/>
-            <filter val="377"/>
-            <filter val="379"/>
-            <filter val="380"/>
-            <filter val="381"/>
-            <filter val="383"/>
-            <filter val="384"/>
-            <filter val="385"/>
-            <filter val="386"/>
-            <filter val="387"/>
-            <filter val="389"/>
-            <filter val="390"/>
-            <filter val="391"/>
-            <filter val="392"/>
-            <filter val="393"/>
-            <filter val="394"/>
-            <filter val="395"/>
-            <filter val="396"/>
-            <filter val="397"/>
-            <filter val="398"/>
-            <filter val="399"/>
-            <filter val="400"/>
-            <filter val="401"/>
-            <filter val="402"/>
-            <filter val="403"/>
-            <filter val="404"/>
-            <filter val="406"/>
-            <filter val="407"/>
-            <filter val="408"/>
-            <filter val="409"/>
-            <filter val="410"/>
-            <filter val="411"/>
-            <filter val="412"/>
-            <filter val="413"/>
-            <filter val="414"/>
-            <filter val="415"/>
-            <filter val="416"/>
-            <filter val="418"/>
-            <filter val="419"/>
-            <filter val="420"/>
-            <filter val="423"/>
-            <filter val="424"/>
-            <filter val="425"/>
-            <filter val="426"/>
-            <filter val="428"/>
-            <filter val="430"/>
-            <filter val="432"/>
-            <filter val="433"/>
-            <filter val="434"/>
-            <filter val="437"/>
-            <filter val="438"/>
-            <filter val="439"/>
-            <filter val="440"/>
-            <filter val="445"/>
-            <filter val="446"/>
-            <filter val="448"/>
-            <filter val="449"/>
-            <filter val="450"/>
-            <filter val="451"/>
-            <filter val="454"/>
-            <filter val="ANULADO"/>
-            <filter val="Anulado Edgardo no viajo a Barichara"/>
-            <filter val="Esta en tramite de archivo"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{26D55965-C2B7-4D5D-BCB2-3F8E5B690A85}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="D1:D998" xr:uid="{4A08AF00-DECF-4D99-B7AB-2886FDCC0EC9}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -18170,10 +18170,10 @@
   <sheetPr codeName="Hoja2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18185,7 +18185,7 @@
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -18224,12 +18224,8 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
-        <f>"""" &amp; F2 &amp; """"</f>
-        <v>"001"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -18249,7 +18245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -18269,7 +18265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -18289,7 +18285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -18309,7 +18305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -18329,7 +18325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -18349,7 +18345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -18369,7 +18365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -18389,7 +18385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -18409,7 +18405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -18429,7 +18425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -18449,7 +18445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -18467,7 +18463,7 @@
       </c>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -18487,7 +18483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
